--- a/src/test/resources/TestDriver/TestGL/Test.xlsx
+++ b/src/test/resources/TestDriver/TestGL/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestGL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D86A720-0887-4948-B6AD-08F45990E91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587726F-194C-4622-A94E-059D4DE8D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>Steps</t>
   </si>
@@ -51,15 +51,6 @@
   </si>
   <si>
     <t>FILE_UPLOAD</t>
-  </si>
-  <si>
-    <t>CONFIGURATION</t>
-  </si>
-  <si>
-    <t>MODEL_CONFIGURATION</t>
-  </si>
-  <si>
-    <t>ATTRIBUTE</t>
   </si>
   <si>
     <t>ACTIVITY_UPLOAD</t>
@@ -323,7 +314,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -356,61 +347,50 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44592</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="2">
-        <v>44592</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
         <v>44620</v>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestGL/Test.xlsx
+++ b/src/test/resources/TestDriver/TestGL/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestGL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587726F-194C-4622-A94E-059D4DE8D96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC848246-916C-4463-9DB6-54B36A21F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,13 +62,13 @@
     <t>EXECUTION</t>
   </si>
   <si>
-    <t>TestSBO/ReferenceData/RefData_SBO_EVENTS.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO/ActivityData/ActivityData_JAN1.xlsx</t>
-  </si>
-  <si>
-    <t>TestSBO/ActivityData/ActivityData_FEB3.xlsx</t>
+    <t>TestGL/ReferenceData/RefData_SBO_EVENTS.xlsx</t>
+  </si>
+  <si>
+    <t>TestGL/ActivityData/ActivityData_JAN1.xlsx</t>
+  </si>
+  <si>
+    <t>TestGL/ActivityData/ActivityData_FEB3.xlsx</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/src/test/resources/TestDriver/TestGL/Test.xlsx
+++ b/src/test/resources/TestDriver/TestGL/Test.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestGL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC848246-916C-4463-9DB6-54B36A21F124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1AB5D4-437B-4F0C-90C9-36CE2D6622A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
+    <sheet name="O_GL1" sheetId="2" r:id="rId2"/>
+    <sheet name="O_GL2" sheetId="3" r:id="rId3"/>
+    <sheet name="O_GL3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
   <si>
     <t>Steps</t>
   </si>
@@ -69,6 +72,120 @@
   </si>
   <si>
     <t>TestGL/ActivityData/ActivityData_FEB3.xlsx</t>
+  </si>
+  <si>
+    <t>{"instrumentId": "LOAN1"}</t>
+  </si>
+  <si>
+    <t>postingDate ASC</t>
+  </si>
+  <si>
+    <t>LOAN1</t>
+  </si>
+  <si>
+    <t>SERVICING_INTEREST_ACCRUAL</t>
+  </si>
+  <si>
+    <t>{"instrumentId": "LOAN2"}</t>
+  </si>
+  <si>
+    <t>LOAN2</t>
+  </si>
+  <si>
+    <t>{"instrumentId": "LOAN3"}</t>
+  </si>
+  <si>
+    <t>LOAN3</t>
+  </si>
+  <si>
+    <t>GeneralLedgerEnteryStage</t>
+  </si>
+  <si>
+    <t>glAccountNumber</t>
+  </si>
+  <si>
+    <t>glAccountName</t>
+  </si>
+  <si>
+    <t>glAccountType</t>
+  </si>
+  <si>
+    <t>glAccountSubType</t>
+  </si>
+  <si>
+    <t>creditAmount</t>
+  </si>
+  <si>
+    <t>isReclass</t>
+  </si>
+  <si>
+    <t>attributes.PRODUCT_TYPE</t>
+  </si>
+  <si>
+    <t>attributes.PORTFOLIO</t>
+  </si>
+  <si>
+    <t>periodId</t>
+  </si>
+  <si>
+    <t>instrumentId ASC</t>
+  </si>
+  <si>
+    <t>attributeId ASC</t>
+  </si>
+  <si>
+    <t>transactionName ASC</t>
+  </si>
+  <si>
+    <t>debitAmount DESC</t>
+  </si>
+  <si>
+    <t>PURCHASE_INTEREST</t>
+  </si>
+  <si>
+    <t>ACCRUED INTEREST RECEIVABLE 102</t>
+  </si>
+  <si>
+    <t>BALANCESHEET</t>
+  </si>
+  <si>
+    <t>ACCRUED INTEREST RECEIVABLE</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>CASH CLEARING 102</t>
+  </si>
+  <si>
+    <t>CLEARING</t>
+  </si>
+  <si>
+    <t>CASH CLEARING</t>
+  </si>
+  <si>
+    <t>PURCHASE_UPB</t>
+  </si>
+  <si>
+    <t>PRINCIPAL 102</t>
+  </si>
+  <si>
+    <t>PRINCIPAL</t>
+  </si>
+  <si>
+    <t>ACCRUED INTEREST RECEIVABLE 103R</t>
+  </si>
+  <si>
+    <t>RAF</t>
+  </si>
+  <si>
+    <t>INTEREST INCOME 103R</t>
+  </si>
+  <si>
+    <t>INCOMESTATEMENT</t>
+  </si>
+  <si>
+    <t>INTEREST INCOME</t>
   </si>
 </sst>
 </file>
@@ -101,7 +218,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -109,15 +226,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -402,4 +539,1052 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F250FCE-25A0-4E2C-8833-A52C8653E7D2}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.140625" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>102</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-1000</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>102</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5">
+        <v>100000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>102</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-100000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>102</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="5">
+        <v>210</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>103</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>19000</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>-210</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>103</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E37FC6D-0077-4D62-8A07-4B36BD0B9382}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>102</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-2000</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>102</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>102</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-200000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>102</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="5">
+        <v>310</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>103</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>19000</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>-310</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>103</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DCA791-2956-4EBF-88DD-8DA0DEE202B6}">
+  <dimension ref="A1:N8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5000</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="5">
+        <v>3000</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>102</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>-3000</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>102</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="5">
+        <v>300000</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>102</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>20220131</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>-300000</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>102</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N6" s="5">
+        <v>202201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="5">
+        <v>410</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>103</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="5">
+        <v>19000</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>410</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>103</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/src/test/resources/TestDriver/TestGL/Test.xlsx
+++ b/src/test/resources/TestDriver/TestGL/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestGL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1AB5D4-437B-4F0C-90C9-36CE2D6622A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FFC1A2-29EE-4520-9F98-18229C351487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,7 +559,7 @@
     <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -1263,7 +1263,7 @@
     <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>410</v>
+        <v>-410</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>

--- a/src/test/resources/TestDriver/TestGL/Test.xlsx
+++ b/src/test/resources/TestDriver/TestGL/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestGL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13FFC1A2-29EE-4520-9F98-18229C351487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06501AB1-2955-425F-A84B-BA119CB6AA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="50">
   <si>
     <t>Steps</t>
   </si>
@@ -186,6 +186,9 @@
   </si>
   <si>
     <t>INTEREST INCOME</t>
+  </si>
+  <si>
+    <t>PRINCIPAL 103R</t>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
@@ -255,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,20 +549,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F250FCE-25A0-4E2C-8833-A52C8653E7D2}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
@@ -798,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5">
         <v>20000</v>
@@ -813,13 +827,13 @@
         <v>36</v>
       </c>
       <c r="I7" s="5">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
+      <c r="K7" s="7">
+        <v>1</v>
       </c>
       <c r="L7" s="5">
         <v>103</v>
@@ -842,28 +856,28 @@
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>-210</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
+        <v>-1000</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
       </c>
       <c r="L8" s="5">
         <v>103</v>
@@ -875,7 +889,190 @@
         <v>202202</v>
       </c>
     </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6">
+        <v>18000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5">
+        <v>100000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>103</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-100000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>103</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="5">
+        <v>210</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>103</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19000</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-210</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>103</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="5">
+        <v>202202</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N12">
+    <sortCondition ref="A3:A12"/>
+    <sortCondition ref="B3:B12"/>
+    <sortCondition ref="C3:C12"/>
+    <sortCondition ref="D3:D12"/>
+    <sortCondition descending="1" ref="I3:I12"/>
+  </sortState>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -887,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E37FC6D-0077-4D62-8A07-4B36BD0B9382}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:N2"/>
+      <selection activeCell="A7" sqref="A7:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1144,13 +1341,13 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5">
         <v>20000</v>
@@ -1165,13 +1362,13 @@
         <v>36</v>
       </c>
       <c r="I7" s="5">
-        <v>310</v>
+        <v>2000</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
+      <c r="K7" s="7">
+        <v>1</v>
       </c>
       <c r="L7" s="5">
         <v>103</v>
@@ -1188,34 +1385,34 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>-310</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
+        <v>-2000</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
       </c>
       <c r="L8" s="5">
         <v>103</v>
@@ -1224,6 +1421,182 @@
         <v>45</v>
       </c>
       <c r="N8" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6">
+        <v>18000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5">
+        <v>200000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>103</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-200000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>103</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="5">
+        <v>310</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>103</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19000</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-310</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>103</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="5">
         <v>202202</v>
       </c>
     </row>
@@ -1239,28 +1612,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6DCA791-2956-4EBF-88DD-8DA0DEE202B6}">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39" x14ac:dyDescent="0.25">
@@ -1496,13 +1869,13 @@
         <v>20220228</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5">
         <v>20000</v>
@@ -1517,13 +1890,13 @@
         <v>36</v>
       </c>
       <c r="I7" s="5">
-        <v>410</v>
+        <v>3000</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
-      <c r="K7" s="5">
-        <v>0</v>
+      <c r="K7" s="7">
+        <v>1</v>
       </c>
       <c r="L7" s="5">
         <v>103</v>
@@ -1540,34 +1913,34 @@
         <v>20220228</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5">
-        <v>19000</v>
+        <v>5000</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>-410</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
+        <v>-3000</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
       </c>
       <c r="L8" s="5">
         <v>103</v>
@@ -1576,6 +1949,182 @@
         <v>45</v>
       </c>
       <c r="N8" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="6">
+        <v>18000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="5">
+        <v>300000</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>103</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3000</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>-300000</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>103</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="5">
+        <v>410</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>103</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="5">
+        <v>202202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>20220228</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="5">
+        <v>19000</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>-410</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>103</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="5">
         <v>202202</v>
       </c>
     </row>
